--- a/Projects/CCRU_SAND/Data/KPIs_2018/FT Spirits 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/FT Spirits 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">shelf_number</t>
   </si>
   <si>
-    <t xml:space="preserve">Converted?</t>
-  </si>
-  <si>
     <t xml:space="preserve">score_func</t>
   </si>
   <si>
@@ -118,12 +115,6 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI from POS 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">depends on</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t xml:space="preserve">Parent</t>
   </si>
   <si>
-    <t xml:space="preserve">To include in first calculation?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Traditional Trade</t>
   </si>
   <si>
@@ -170,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">BINARY</t>
@@ -211,7 +196,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -235,24 +220,26 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -289,41 +276,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -343,378 +326,380 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN5"/>
+  <dimension ref="1:5"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="28" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="41.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="5.24696356275304"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="5.35627530364372"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1020" min="37" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="4" customFormat="true" ht="41.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="C2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>8002230000302</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="K3" s="2" t="n">
+        <v>8000020000280</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="O4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="P4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="T4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="W4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="n">
-        <v>8002230000302</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="AA5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="6" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AB5" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AK2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>8000020000280</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC3" s="6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AJ3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC4" s="6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AJ4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC5" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AH5" s="1" t="n">
         <v>5</v>
       </c>
     </row>
